--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1472651.939691271</v>
+        <v>1469957.369418963</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2696891.39260277</v>
+        <v>2696891.392602769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4628285.718801247</v>
+        <v>4628285.718801248</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>12.53297764350644</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>259.1410023668474</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>272.8268403244578</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>196.4687615564067</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>119.5265904623696</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>56.42960376138786</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>75.2284974042858</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914581</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1141,13 +1141,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>343.9443740216508</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>63.2558754117985</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>116.0204380696717</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,7 +1384,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.6710726488808</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>317.1548035061597</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>14.99566033642638</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>248.1619210840427</v>
       </c>
       <c r="V11" t="n">
-        <v>197.1436114958804</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.71688629051012</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S12" t="n">
         <v>130.0030447201288</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8756284147635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4100049457286</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.4878088856454</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>126.906482568077</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.65584247365965</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9732717690249</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>124.2551656501518</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>136.2930086186889</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.6710726488808</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>57.73163490730892</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S14" t="n">
         <v>156.6436591773999</v>
@@ -1672,7 +1672,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1706,7 +1706,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I15" t="n">
-        <v>42.26059371959866</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.71688629051011</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S15" t="n">
         <v>130.0030447201288</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>115.3999737951352</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9732717690249</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>232.6717799003976</v>
+        <v>211.7762046468481</v>
       </c>
       <c r="U16" t="n">
         <v>282.5755942905643</v>
       </c>
       <c r="V16" t="n">
-        <v>209.547828957809</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.6710726488808</v>
+        <v>130.4439358464684</v>
       </c>
       <c r="H17" t="n">
-        <v>251.8130494627094</v>
+        <v>317.1548035061597</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>123.0727134769421</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>156.6436591773999</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1943,7 +1943,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I18" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71688629051012</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S18" t="n">
         <v>130.0030447201288</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>22.47529680786251</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>232.6717799003976</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5755942905643</v>
+        <v>261.6800190370148</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>408.6710726488808</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>219.6894543054248</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>147.5453760065741</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>32.123595157284</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2180,7 +2180,7 @@
         <v>85.5538819069469</v>
       </c>
       <c r="I21" t="n">
-        <v>42.26059371959867</v>
+        <v>42.26059371959868</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.71688629051012</v>
+        <v>11.71688629051014</v>
       </c>
       <c r="S21" t="n">
         <v>130.0030447201288</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>18.18589453313777</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4100049457286</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>126.906482568077</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>212.8790112412599</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5755942905643</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>283.3005839856482</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>251.4936861533058</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1473000347972</v>
@@ -2383,10 +2383,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>175.8816529875561</v>
       </c>
       <c r="V25" t="n">
-        <v>132.5089494581493</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2572,7 +2572,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>186.2566917367131</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>278.3508696015744</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>1.263405521905788</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>96.64197629339078</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
@@ -2812,7 +2812,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>212.1985842820226</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.5996065590999</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>120.1934288784717</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.560705050483725</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>226.5103736105637</v>
       </c>
       <c r="G32" t="n">
         <v>408.4323500200001</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>187.5176932235422</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,10 +3094,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0.3591562869883625</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3029221927327</v>
@@ -3207,7 +3207,7 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>1.263405521906196</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>286.8763302588255</v>
       </c>
       <c r="D35" t="n">
-        <v>269.7899081095861</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>118.8510548107334</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>206.4231376488446</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3514,13 +3514,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>376.0445957592143</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>245.9059068233814</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3602,7 +3602,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I39" t="n">
-        <v>37.8629456688208</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597831</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>192.934669299212</v>
       </c>
       <c r="U40" t="n">
-        <v>253.9738084458274</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>259.7595762266942</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>408.4323500200001</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -3808,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>345.5378333347174</v>
       </c>
     </row>
     <row r="42">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>76.66783807881636</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
@@ -3966,7 +3966,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>76.66783807881646</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>222.2172295452417</v>
+        <v>81.50223769372096</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>120.9081662797317</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>151.8949021505431</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1279.953688967018</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.953688967018</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.953688967018</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3701640835627</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>522.3927108198674</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2327.655591362701</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2327.655591362701</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.655591362701</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.655591362701</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W2" t="n">
-        <v>2065.89700311336</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X2" t="n">
-        <v>1676.444398046417</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y2" t="n">
-        <v>1279.953688967018</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016667</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.935755423147</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M3" t="n">
-        <v>1374.52913135418</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1960.027136360782</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825358</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.6389048885706</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C4" t="n">
-        <v>204.6389048885706</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D4" t="n">
-        <v>204.6389048885706</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E4" t="n">
-        <v>204.6389048885706</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U4" t="n">
-        <v>673.1773256486943</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V4" t="n">
-        <v>673.1773256486943</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W4" t="n">
-        <v>389.8469235798719</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X4" t="n">
-        <v>389.8469235798719</v>
+        <v>276.1445347768625</v>
       </c>
       <c r="Y4" t="n">
-        <v>389.8469235798719</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>594.063689803128</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="C5" t="n">
-        <v>594.063689803128</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D5" t="n">
-        <v>594.063689803128</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E5" t="n">
-        <v>473.3297600431587</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
@@ -4573,46 +4573,46 @@
         <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712866</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2104.154988922118</v>
+        <v>2308.648905318203</v>
       </c>
       <c r="U5" t="n">
-        <v>2104.154988922118</v>
+        <v>2052.896175752801</v>
       </c>
       <c r="V5" t="n">
-        <v>1762.048179625636</v>
+        <v>1710.78936645632</v>
       </c>
       <c r="W5" t="n">
-        <v>1391.049144593924</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="X5" t="n">
-        <v>1391.049144593924</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="Y5" t="n">
-        <v>994.5584355145249</v>
+        <v>1339.790331424607</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>272.5108437565968</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631988</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>546.0545382417722</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4755,22 +4755,22 @@
         <v>622.0429194582225</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V7" t="n">
-        <v>47.31297010154359</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154359</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154359</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154359</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1585.054036354823</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.878534857753</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D8" t="n">
-        <v>806.437406074421</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>403.8538811909655</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313636</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712866</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415867</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.421412053329</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362701</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362701</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362701</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>1985.54878206622</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W8" t="n">
-        <v>1985.54878206622</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X8" t="n">
-        <v>1985.54878206622</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="Y8" t="n">
-        <v>1985.54878206622</v>
+        <v>1655.986794363964</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>2131.283413522289</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
         <v>2131.283413522289</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>390.4957261009747</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>390.4957261009747</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>233.1697913139477</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544164</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>831.567630956559</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.1288391984599</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.010535522881</v>
+        <v>1727.77034345785</v>
       </c>
       <c r="C11" t="n">
-        <v>2132.835034025811</v>
+        <v>1334.594841960781</v>
       </c>
       <c r="D11" t="n">
-        <v>1747.393905242479</v>
+        <v>1334.594841960781</v>
       </c>
       <c r="E11" t="n">
-        <v>1344.810380359023</v>
+        <v>932.0113170773255</v>
       </c>
       <c r="F11" t="n">
-        <v>927.915941889001</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="G11" t="n">
-        <v>515.1168786073032</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="H11" t="n">
         <v>194.7584912273439</v>
@@ -5041,10 +5041,10 @@
         <v>70.44261902841252</v>
       </c>
       <c r="J11" t="n">
-        <v>245.3460436923002</v>
+        <v>245.3460436922999</v>
       </c>
       <c r="K11" t="n">
-        <v>649.6707812504196</v>
+        <v>649.6707812504193</v>
       </c>
       <c r="L11" t="n">
         <v>1199.242306705369</v>
@@ -5053,40 +5053,40 @@
         <v>1807.83354273411</v>
       </c>
       <c r="N11" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O11" t="n">
         <v>2899.346156407833</v>
       </c>
       <c r="P11" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q11" t="n">
         <v>3522.130951420626</v>
       </c>
       <c r="R11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="T11" t="n">
-        <v>3522.130951420626</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="U11" t="n">
-        <v>3522.130951420626</v>
+        <v>3256.315212612071</v>
       </c>
       <c r="V11" t="n">
-        <v>3322.995990313676</v>
+        <v>2914.20840331559</v>
       </c>
       <c r="W11" t="n">
-        <v>3322.995990313676</v>
+        <v>2914.20840331559</v>
       </c>
       <c r="X11" t="n">
-        <v>3322.995990313676</v>
+        <v>2524.755798248646</v>
       </c>
       <c r="Y11" t="n">
-        <v>2926.505281234277</v>
+        <v>2128.265089169247</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>319.4133753939489</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5481499643171</v>
+        <v>199.5481499643172</v>
       </c>
       <c r="H12" t="n">
-        <v>113.1300874320475</v>
+        <v>113.1300874320476</v>
       </c>
       <c r="I12" t="n">
         <v>70.44261902841252</v>
       </c>
       <c r="J12" t="n">
-        <v>70.44261902841252</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K12" t="n">
-        <v>70.44261902841252</v>
+        <v>552.1127299859706</v>
       </c>
       <c r="L12" t="n">
-        <v>420.1366852106104</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.232460392822</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="N12" t="n">
-        <v>1801.613552969444</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O12" t="n">
-        <v>2363.511000854018</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P12" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q12" t="n">
         <v>2363.511000854018</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1119.097617728343</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.112134481107</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="D13" t="n">
-        <v>852.4790213836216</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="E13" t="n">
-        <v>696.9202092428241</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="F13" t="n">
-        <v>539.5942744557969</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="G13" t="n">
-        <v>371.5033603692025</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H13" t="n">
-        <v>217.4752705857223</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I13" t="n">
-        <v>89.28690435534146</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J13" t="n">
         <v>70.44261902841252</v>
@@ -5208,43 +5208,43 @@
         <v>358.7537756907474</v>
       </c>
       <c r="M13" t="n">
-        <v>570.1093605549256</v>
+        <v>570.1093605549255</v>
       </c>
       <c r="N13" t="n">
-        <v>777.7670350576718</v>
+        <v>777.7670350576717</v>
       </c>
       <c r="O13" t="n">
-        <v>963.0719977419544</v>
+        <v>963.0719977419543</v>
       </c>
       <c r="P13" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q13" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R13" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S13" t="n">
-        <v>1119.097617728343</v>
+        <v>919.1246159414485</v>
       </c>
       <c r="T13" t="n">
-        <v>1119.097617728343</v>
+        <v>919.1246159414485</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.097617728343</v>
+        <v>919.1246159414485</v>
       </c>
       <c r="V13" t="n">
-        <v>1119.097617728343</v>
+        <v>653.1452707622727</v>
       </c>
       <c r="W13" t="n">
-        <v>1119.097617728343</v>
+        <v>527.635002428786</v>
       </c>
       <c r="X13" t="n">
-        <v>1119.097617728343</v>
+        <v>293.5546802117692</v>
       </c>
       <c r="Y13" t="n">
-        <v>1119.097617728343</v>
+        <v>70.44261902841252</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>986.7289549842576</v>
+        <v>1361.034428398244</v>
       </c>
       <c r="C14" t="n">
-        <v>593.5534534871881</v>
+        <v>1361.034428398244</v>
       </c>
       <c r="D14" t="n">
-        <v>208.1123247038558</v>
+        <v>1361.034428398244</v>
       </c>
       <c r="E14" t="n">
-        <v>208.1123247038558</v>
+        <v>958.450903514788</v>
       </c>
       <c r="F14" t="n">
-        <v>70.44261902841255</v>
+        <v>541.5564650447658</v>
       </c>
       <c r="G14" t="n">
-        <v>70.44261902841255</v>
+        <v>128.757401763068</v>
       </c>
       <c r="H14" t="n">
-        <v>70.44261902841255</v>
+        <v>128.757401763068</v>
       </c>
       <c r="I14" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J14" t="n">
-        <v>245.3460436923006</v>
+        <v>245.3460436923002</v>
       </c>
       <c r="K14" t="n">
-        <v>649.6707812504201</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L14" t="n">
-        <v>1199.24230670537</v>
+        <v>1199.242306705369</v>
       </c>
       <c r="M14" t="n">
-        <v>1807.833542734111</v>
+        <v>1807.833542734109</v>
       </c>
       <c r="N14" t="n">
-        <v>2399.247939428138</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O14" t="n">
-        <v>2899.346156407835</v>
+        <v>2899.346156407833</v>
       </c>
       <c r="P14" t="n">
-        <v>3298.792287864734</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q14" t="n">
-        <v>3522.130951420627</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="R14" t="n">
-        <v>3522.130951420627</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S14" t="n">
-        <v>3363.905033059617</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="T14" t="n">
-        <v>3141.996493357168</v>
+        <v>3126.849361704211</v>
       </c>
       <c r="U14" t="n">
-        <v>2886.272859170191</v>
+        <v>2871.125727517233</v>
       </c>
       <c r="V14" t="n">
-        <v>2544.166049873709</v>
+        <v>2529.018918220752</v>
       </c>
       <c r="W14" t="n">
-        <v>2173.167014841997</v>
+        <v>2158.019883189039</v>
       </c>
       <c r="X14" t="n">
-        <v>1783.714409775053</v>
+        <v>2158.019883189039</v>
       </c>
       <c r="Y14" t="n">
-        <v>1387.223700695655</v>
+        <v>1761.529174109641</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>113.1300874320476</v>
       </c>
       <c r="I15" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J15" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="K15" t="n">
-        <v>70.44261902841255</v>
+        <v>420.9788800391931</v>
       </c>
       <c r="L15" t="n">
-        <v>595.4192265750995</v>
+        <v>945.95548758588</v>
       </c>
       <c r="M15" t="n">
-        <v>1271.515001757311</v>
+        <v>945.95548758588</v>
       </c>
       <c r="N15" t="n">
-        <v>1359.573008583379</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O15" t="n">
-        <v>1921.470456467953</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P15" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q15" t="n">
         <v>2363.511000854018</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="C16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="D16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="E16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="F16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="G16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="K16" t="n">
-        <v>170.8543581260122</v>
+        <v>170.8543581260121</v>
       </c>
       <c r="L16" t="n">
-        <v>358.7537756907475</v>
+        <v>358.7537756907474</v>
       </c>
       <c r="M16" t="n">
-        <v>570.1093605549257</v>
+        <v>570.1093605549255</v>
       </c>
       <c r="N16" t="n">
-        <v>777.767035057672</v>
+        <v>777.7670350576717</v>
       </c>
       <c r="O16" t="n">
-        <v>963.0719977419546</v>
+        <v>963.0719977419543</v>
       </c>
       <c r="P16" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q16" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R16" t="n">
-        <v>1002.531987632247</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S16" t="n">
-        <v>802.5589858453528</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T16" t="n">
-        <v>567.5369859459613</v>
+        <v>905.1822594992028</v>
       </c>
       <c r="U16" t="n">
-        <v>282.1070927231691</v>
+        <v>619.7523662764106</v>
       </c>
       <c r="V16" t="n">
-        <v>70.44261902841255</v>
+        <v>353.7730210972349</v>
       </c>
       <c r="W16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="X16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2335.692891562888</v>
+        <v>1449.213997220727</v>
       </c>
       <c r="C17" t="n">
-        <v>1942.517390065819</v>
+        <v>1449.213997220727</v>
       </c>
       <c r="D17" t="n">
-        <v>1557.076261282486</v>
+        <v>1063.772868437395</v>
       </c>
       <c r="E17" t="n">
-        <v>1154.492736399031</v>
+        <v>1063.772868437395</v>
       </c>
       <c r="F17" t="n">
-        <v>737.5982979290087</v>
+        <v>646.8784299673724</v>
       </c>
       <c r="G17" t="n">
-        <v>324.7992346473109</v>
+        <v>515.1168786073033</v>
       </c>
       <c r="H17" t="n">
-        <v>70.44261902841255</v>
+        <v>194.7584912273439</v>
       </c>
       <c r="I17" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J17" t="n">
-        <v>245.3460436923006</v>
+        <v>245.3460436923001</v>
       </c>
       <c r="K17" t="n">
-        <v>649.6707812504201</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L17" t="n">
         <v>1199.242306705369</v>
@@ -5527,40 +5527,40 @@
         <v>1807.83354273411</v>
       </c>
       <c r="N17" t="n">
-        <v>2399.247939428137</v>
+        <v>2399.247939428136</v>
       </c>
       <c r="O17" t="n">
-        <v>2899.346156407834</v>
+        <v>2899.346156407833</v>
       </c>
       <c r="P17" t="n">
-        <v>3298.792287864734</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q17" t="n">
-        <v>3522.130951420627</v>
+        <v>3522.130951420626</v>
       </c>
       <c r="R17" t="n">
-        <v>3522.130951420627</v>
+        <v>3506.98381976767</v>
       </c>
       <c r="S17" t="n">
-        <v>3522.130951420627</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="T17" t="n">
-        <v>3522.130951420627</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="U17" t="n">
-        <v>3522.130951420627</v>
+        <v>3348.75790140666</v>
       </c>
       <c r="V17" t="n">
-        <v>3522.130951420627</v>
+        <v>3006.651092110179</v>
       </c>
       <c r="W17" t="n">
-        <v>3522.130951420627</v>
+        <v>2635.652057078466</v>
       </c>
       <c r="X17" t="n">
-        <v>3132.678346353684</v>
+        <v>2246.199452011523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2736.187637274285</v>
+        <v>1849.708742932124</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>113.1300874320476</v>
       </c>
       <c r="I18" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J18" t="n">
-        <v>70.44261902841255</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K18" t="n">
-        <v>70.44261902841255</v>
+        <v>552.1127299859706</v>
       </c>
       <c r="L18" t="n">
-        <v>70.44261902841255</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="M18" t="n">
-        <v>746.5383942106245</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="N18" t="n">
-        <v>1451.919486787246</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O18" t="n">
-        <v>2013.81693467182</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P18" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q18" t="n">
         <v>2363.511000854018</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.14493903635449</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="C19" t="n">
-        <v>93.14493903635449</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="D19" t="n">
-        <v>93.14493903635449</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="E19" t="n">
-        <v>93.14493903635449</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="F19" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="G19" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="H19" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="I19" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="J19" t="n">
-        <v>70.44261902841255</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="K19" t="n">
-        <v>170.8543581260122</v>
+        <v>170.8543581260121</v>
       </c>
       <c r="L19" t="n">
         <v>358.7537756907474</v>
       </c>
       <c r="M19" t="n">
-        <v>570.1093605549256</v>
+        <v>570.1093605549255</v>
       </c>
       <c r="N19" t="n">
-        <v>777.7670350576718</v>
+        <v>777.7670350576717</v>
       </c>
       <c r="O19" t="n">
-        <v>963.0719977419544</v>
+        <v>963.0719977419543</v>
       </c>
       <c r="P19" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S19" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T19" t="n">
-        <v>1119.097617728343</v>
+        <v>884.0756178289508</v>
       </c>
       <c r="U19" t="n">
-        <v>833.6677245055504</v>
+        <v>619.7523662764106</v>
       </c>
       <c r="V19" t="n">
-        <v>833.6677245055504</v>
+        <v>353.7730210972349</v>
       </c>
       <c r="W19" t="n">
-        <v>550.3373224367281</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="X19" t="n">
-        <v>316.2570002197111</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.14493903635449</v>
+        <v>70.44261902841252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2081.33627594399</v>
+        <v>1251.64277419227</v>
       </c>
       <c r="C20" t="n">
-        <v>1688.16077444692</v>
+        <v>858.4672726952003</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.719645663588</v>
+        <v>473.026143911868</v>
       </c>
       <c r="E20" t="n">
-        <v>900.1361207801326</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="F20" t="n">
-        <v>483.2416823101103</v>
+        <v>70.44261902841252</v>
       </c>
       <c r="G20" t="n">
         <v>70.44261902841252</v>
@@ -5752,10 +5752,10 @@
         <v>70.44261902841252</v>
       </c>
       <c r="J20" t="n">
-        <v>245.3460436923002</v>
+        <v>245.3460436923001</v>
       </c>
       <c r="K20" t="n">
-        <v>649.6707812504196</v>
+        <v>649.6707812504195</v>
       </c>
       <c r="L20" t="n">
         <v>1199.242306705369</v>
@@ -5767,10 +5767,10 @@
         <v>2399.247939428137</v>
       </c>
       <c r="O20" t="n">
-        <v>2899.346156407834</v>
+        <v>2899.346156407833</v>
       </c>
       <c r="P20" t="n">
-        <v>3298.792287864733</v>
+        <v>3298.792287864732</v>
       </c>
       <c r="Q20" t="n">
         <v>3522.130951420626</v>
@@ -5785,19 +5785,19 @@
         <v>3300.222411718177</v>
       </c>
       <c r="U20" t="n">
-        <v>3300.222411718177</v>
+        <v>3151.186678378203</v>
       </c>
       <c r="V20" t="n">
-        <v>3300.222411718177</v>
+        <v>2809.079869081721</v>
       </c>
       <c r="W20" t="n">
-        <v>3267.774335801729</v>
+        <v>2438.080834050009</v>
       </c>
       <c r="X20" t="n">
-        <v>2878.321730734785</v>
+        <v>2048.628228983066</v>
       </c>
       <c r="Y20" t="n">
-        <v>2481.831021655386</v>
+        <v>1652.137519903667</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>319.4133753939489</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5481499643171</v>
+        <v>199.5481499643172</v>
       </c>
       <c r="H21" t="n">
-        <v>113.1300874320475</v>
+        <v>113.1300874320476</v>
       </c>
       <c r="I21" t="n">
         <v>70.44261902841252</v>
       </c>
       <c r="J21" t="n">
-        <v>70.44261902841252</v>
+        <v>201.57646897519</v>
       </c>
       <c r="K21" t="n">
-        <v>70.44261902841252</v>
+        <v>552.1127299859706</v>
       </c>
       <c r="L21" t="n">
-        <v>420.1366852106104</v>
+        <v>1077.089337532658</v>
       </c>
       <c r="M21" t="n">
-        <v>1096.232460392822</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="N21" t="n">
-        <v>1801.613552969444</v>
+        <v>1100.862662568247</v>
       </c>
       <c r="O21" t="n">
-        <v>2363.511000854018</v>
+        <v>1662.760110452821</v>
       </c>
       <c r="P21" t="n">
-        <v>2363.511000854018</v>
+        <v>2104.800654838886</v>
       </c>
       <c r="Q21" t="n">
         <v>2363.511000854018</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.7878704803445</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="C22" t="n">
-        <v>569.7878704803445</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="D22" t="n">
-        <v>551.4182800428316</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="E22" t="n">
-        <v>395.8594679020341</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="F22" t="n">
-        <v>238.5335331150071</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="G22" t="n">
-        <v>70.44261902841252</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="H22" t="n">
-        <v>70.44261902841252</v>
+        <v>198.6309852587933</v>
       </c>
       <c r="I22" t="n">
         <v>70.44261902841252</v>
@@ -5919,43 +5919,43 @@
         <v>358.7537756907474</v>
       </c>
       <c r="M22" t="n">
-        <v>570.1093605549256</v>
+        <v>570.1093605549255</v>
       </c>
       <c r="N22" t="n">
-        <v>777.7670350576718</v>
+        <v>777.7670350576717</v>
       </c>
       <c r="O22" t="n">
-        <v>963.0719977419544</v>
+        <v>963.0719977419543</v>
       </c>
       <c r="P22" t="n">
-        <v>1102.2865351952</v>
+        <v>1102.286535195199</v>
       </c>
       <c r="Q22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="R22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="S22" t="n">
-        <v>1119.097617728343</v>
+        <v>1119.097617728342</v>
       </c>
       <c r="T22" t="n">
-        <v>1119.097617728343</v>
+        <v>904.0683134442414</v>
       </c>
       <c r="U22" t="n">
-        <v>1119.097617728343</v>
+        <v>618.6384202214492</v>
       </c>
       <c r="V22" t="n">
-        <v>853.1182725491668</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="W22" t="n">
-        <v>569.7878704803445</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="X22" t="n">
-        <v>569.7878704803445</v>
+        <v>352.6590750422735</v>
       </c>
       <c r="Y22" t="n">
-        <v>569.7878704803445</v>
+        <v>352.6590750422735</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2455.667335788132</v>
+        <v>1490.082251685444</v>
       </c>
       <c r="C23" t="n">
-        <v>2062.491834291063</v>
+        <v>1096.906750188374</v>
       </c>
       <c r="D23" t="n">
-        <v>1677.050705507731</v>
+        <v>810.7445441422649</v>
       </c>
       <c r="E23" t="n">
-        <v>1274.467180624275</v>
+        <v>810.7445441422649</v>
       </c>
       <c r="F23" t="n">
-        <v>857.5727421542528</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G23" t="n">
-        <v>445.0148128411213</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612517</v>
@@ -6001,7 +6001,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361771</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340868</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585818</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116326</v>
+        <v>3389.626155871377</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819845</v>
+        <v>3047.519346574895</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.667335788132</v>
+        <v>2676.520311543183</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.667335788132</v>
+        <v>2287.067706476239</v>
       </c>
       <c r="Y23" t="n">
-        <v>2455.667335788132</v>
+        <v>1890.576997396841</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758443</v>
+        <v>589.997147027437</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968184</v>
+        <v>1298.132617319777</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1298.132617319777</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="C25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J25" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K25" t="n">
         <v>188.6896288950475</v>
@@ -6171,16 +6171,16 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U25" t="n">
-        <v>912.4273982201044</v>
+        <v>1044.55931970418</v>
       </c>
       <c r="V25" t="n">
         <v>778.579974525004</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2404.502628619254</v>
+        <v>1701.172625711542</v>
       </c>
       <c r="C26" t="n">
-        <v>2011.327127122184</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="D26" t="n">
-        <v>1625.885998338852</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E26" t="n">
-        <v>1223.302473455396</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F26" t="n">
-        <v>806.4080349853741</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G26" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H26" t="n">
         <v>75.96123154786345</v>
@@ -6226,10 +6226,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130494</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6244,7 +6244,7 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
         <v>3798.061577393173</v>
@@ -6256,22 +6256,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T26" t="n">
-        <v>3457.192426879542</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U26" t="n">
-        <v>3201.48808341005</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V26" t="n">
-        <v>3201.48808341005</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="W26" t="n">
-        <v>3201.48808341005</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="X26" t="n">
-        <v>3201.48808341005</v>
+        <v>2498.158080502338</v>
       </c>
       <c r="Y26" t="n">
-        <v>2804.99737433065</v>
+        <v>2101.667371422939</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C27" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D27" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E27" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G27" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H27" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>1521.745736331033</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>1521.745736331033</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L27" t="n">
-        <v>1759.674064459015</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M27" t="n">
-        <v>2467.809534751354</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N27" t="n">
-        <v>3206.078317830581</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O27" t="n">
-        <v>3798.061577393173</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>3798.061577393173</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R27" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S27" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T27" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U27" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V27" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W27" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X27" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y27" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3612.853558701871</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="C28" t="n">
-        <v>3442.648440767861</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="D28" t="n">
-        <v>3287.015327670375</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="E28" t="n">
-        <v>3131.456515529578</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="F28" t="n">
-        <v>2974.130580742551</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="G28" t="n">
-        <v>2806.147831052921</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H28" t="n">
-        <v>2653.081421089735</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N28" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O28" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P28" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S28" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T28" t="n">
-        <v>3798.061577393173</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="U28" t="n">
-        <v>3798.061577393173</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="V28" t="n">
-        <v>3798.061577393173</v>
+        <v>609.9762014519845</v>
       </c>
       <c r="W28" t="n">
-        <v>3798.061577393173</v>
+        <v>326.6457993831621</v>
       </c>
       <c r="X28" t="n">
-        <v>3798.061577393173</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="Y28" t="n">
-        <v>3798.061577393173</v>
+        <v>229.0276415110502</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2404.502628619254</v>
+        <v>1700.044220141553</v>
       </c>
       <c r="C29" t="n">
-        <v>2011.327127122184</v>
+        <v>1306.868718644484</v>
       </c>
       <c r="D29" t="n">
-        <v>1625.885998338852</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="E29" t="n">
-        <v>1223.302473455396</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="F29" t="n">
-        <v>806.4080349853741</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G29" t="n">
-        <v>393.8501056722426</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H29" t="n">
-        <v>75.96123154786346</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K29" t="n">
         <v>705.3108151130497</v>
@@ -6475,7 +6475,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361771</v>
@@ -6490,25 +6490,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U29" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V29" t="n">
         <v>3082.370714289337</v>
       </c>
       <c r="W29" t="n">
-        <v>3082.370714289337</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="X29" t="n">
-        <v>3082.370714289337</v>
+        <v>2497.029674932349</v>
       </c>
       <c r="Y29" t="n">
-        <v>2804.99737433065</v>
+        <v>2100.53896585295</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
         <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>219.0418890481681</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L30" t="n">
-        <v>771.4743578797238</v>
+        <v>589.997147027437</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.609828172063</v>
+        <v>1298.132617319777</v>
       </c>
       <c r="N30" t="n">
-        <v>2217.878611251289</v>
+        <v>1298.132617319777</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P30" t="n">
         <v>2352.277072610002</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>834.8307059483216</v>
+        <v>388.9202794323758</v>
       </c>
       <c r="C31" t="n">
-        <v>834.8307059483216</v>
+        <v>388.9202794323758</v>
       </c>
       <c r="D31" t="n">
-        <v>834.8307059483216</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="E31" t="n">
-        <v>679.2718938075241</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F31" t="n">
-        <v>521.945959020497</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G31" t="n">
-        <v>353.9632093308679</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H31" t="n">
-        <v>200.8967993676812</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
@@ -6645,28 +6645,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1222.217555045146</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S31" t="n">
-        <v>1100.810051127497</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T31" t="n">
-        <v>1100.810051127497</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.810051127497</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="V31" t="n">
-        <v>834.8307059483216</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="W31" t="n">
-        <v>834.8307059483216</v>
+        <v>394.5371532207432</v>
       </c>
       <c r="X31" t="n">
-        <v>834.8307059483216</v>
+        <v>394.5371532207432</v>
       </c>
       <c r="Y31" t="n">
-        <v>834.8307059483216</v>
+        <v>388.9202794323758</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2086.613754494874</v>
+        <v>1898.51767320724</v>
       </c>
       <c r="C32" t="n">
-        <v>1693.438252997805</v>
+        <v>1505.34217171017</v>
       </c>
       <c r="D32" t="n">
-        <v>1307.997124214473</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="E32" t="n">
-        <v>905.4135993310172</v>
+        <v>717.3175180433825</v>
       </c>
       <c r="F32" t="n">
         <v>488.5191608609949</v>
       </c>
       <c r="G32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K32" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612518</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.26750440162</v>
       </c>
       <c r="N32" t="n">
         <v>2575.851817818622</v>
@@ -6718,7 +6718,7 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q32" t="n">
         <v>3798.061577393173</v>
@@ -6727,25 +6727,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T32" t="n">
-        <v>3455.918688003957</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U32" t="n">
-        <v>3200.214344534465</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V32" t="n">
-        <v>2858.107535237983</v>
+        <v>3455.954768096692</v>
       </c>
       <c r="W32" t="n">
-        <v>2487.108500206271</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.108500206271</v>
+        <v>2695.503127998036</v>
       </c>
       <c r="Y32" t="n">
-        <v>2487.108500206271</v>
+        <v>2299.012418918637</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>313.8895596758443</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.29381304741</v>
+        <v>1294.106752377725</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P33" t="n">
         <v>2352.277072610002</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1037.009536353844</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="C34" t="n">
-        <v>866.8044184198336</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="D34" t="n">
-        <v>711.1713053223484</v>
+        <v>677.5047711612945</v>
       </c>
       <c r="E34" t="n">
-        <v>555.6124931815509</v>
+        <v>521.945959020497</v>
       </c>
       <c r="F34" t="n">
-        <v>398.2865583945239</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G34" t="n">
-        <v>230.3038087048949</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H34" t="n">
-        <v>77.23739874170809</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K34" t="n">
         <v>188.6896288950475</v>
@@ -6882,28 +6882,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R34" t="n">
-        <v>1222.217555045146</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S34" t="n">
-        <v>1222.217555045146</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T34" t="n">
-        <v>1222.217555045146</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="U34" t="n">
-        <v>1222.217555045146</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="V34" t="n">
-        <v>1222.217555045146</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="W34" t="n">
-        <v>1222.217555045146</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="X34" t="n">
-        <v>1222.217555045146</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1222.217555045146</v>
+        <v>677.8675552895655</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1269.229275930393</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C35" t="n">
-        <v>876.0537744333237</v>
+        <v>1608.743602238729</v>
       </c>
       <c r="D35" t="n">
-        <v>603.5387157367721</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="E35" t="n">
-        <v>603.5387157367721</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F35" t="n">
-        <v>603.5387157367721</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G35" t="n">
-        <v>190.9807864236407</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.923328087484</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130501</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L35" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N35" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O35" t="n">
         <v>3115.769891361771</v>
@@ -6964,25 +6964,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788132</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X35" t="n">
-        <v>2066.214730721189</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y35" t="n">
-        <v>1669.72402164179</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
         <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>313.8895596758443</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L36" t="n">
-        <v>313.8895596758443</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M36" t="n">
-        <v>1022.025029968184</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.29381304741</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O36" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2809.131188682918</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="C37" t="n">
-        <v>2809.131188682918</v>
+        <v>990.4638190458068</v>
       </c>
       <c r="D37" t="n">
-        <v>2809.131188682918</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="E37" t="n">
-        <v>2809.131188682918</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="F37" t="n">
-        <v>2651.805253895891</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G37" t="n">
-        <v>2651.805253895891</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H37" t="n">
-        <v>2651.805253895891</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I37" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M37" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N37" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O37" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P37" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R37" t="n">
-        <v>3686.359411909727</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S37" t="n">
-        <v>3488.271420568132</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T37" t="n">
-        <v>3279.763200720814</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="U37" t="n">
-        <v>2994.33920737422</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="V37" t="n">
-        <v>2994.33920737422</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="W37" t="n">
-        <v>2994.33920737422</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="X37" t="n">
-        <v>2994.33920737422</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="Y37" t="n">
-        <v>2994.33920737422</v>
+        <v>1110.515389561699</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2371.787725325531</v>
+        <v>1524.933619399885</v>
       </c>
       <c r="C38" t="n">
-        <v>1978.612223828461</v>
+        <v>1524.933619399885</v>
       </c>
       <c r="D38" t="n">
-        <v>1593.171095045129</v>
+        <v>1139.492490616553</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.587570161673</v>
+        <v>736.9089657330974</v>
       </c>
       <c r="F38" t="n">
-        <v>773.693131691651</v>
+        <v>736.9089657330974</v>
       </c>
       <c r="G38" t="n">
-        <v>393.8501056722426</v>
+        <v>324.3510364199659</v>
       </c>
       <c r="H38" t="n">
         <v>75.96123154786345</v>
@@ -7174,25 +7174,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K38" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q38" t="n">
         <v>3798.061577393173</v>
@@ -7207,19 +7207,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116326</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V38" t="n">
-        <v>3168.773180116326</v>
+        <v>3082.370714289337</v>
       </c>
       <c r="W38" t="n">
-        <v>3168.773180116326</v>
+        <v>2711.371679257624</v>
       </c>
       <c r="X38" t="n">
-        <v>3168.773180116326</v>
+        <v>2321.919074190681</v>
       </c>
       <c r="Y38" t="n">
-        <v>2772.282471036927</v>
+        <v>1925.428365111282</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L39" t="n">
-        <v>313.8895596758443</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M39" t="n">
-        <v>1022.025029968184</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N39" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O39" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.3582747201569</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="C40" t="n">
-        <v>387.1531567861462</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="D40" t="n">
-        <v>231.520043688661</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="E40" t="n">
-        <v>75.96123154786345</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="F40" t="n">
-        <v>75.96123154786345</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="G40" t="n">
         <v>75.96123154786345</v>
@@ -7362,22 +7362,22 @@
         <v>1222.217555045146</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.217555045146</v>
+        <v>1027.334050702507</v>
       </c>
       <c r="U40" t="n">
-        <v>965.6783545948149</v>
+        <v>1027.334050702507</v>
       </c>
       <c r="V40" t="n">
-        <v>965.6783545948149</v>
+        <v>761.3547055233316</v>
       </c>
       <c r="W40" t="n">
-        <v>965.6783545948149</v>
+        <v>478.0243034545093</v>
       </c>
       <c r="X40" t="n">
-        <v>965.6783545948149</v>
+        <v>243.9439812374924</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.5662934114582</v>
+        <v>243.9439812374924</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.522183495031</v>
+        <v>1717.186616241676</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.346681997961</v>
+        <v>1324.011114744607</v>
       </c>
       <c r="D41" t="n">
-        <v>1740.905553214629</v>
+        <v>1324.011114744607</v>
       </c>
       <c r="E41" t="n">
-        <v>1338.322028331173</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="F41" t="n">
         <v>921.4275898611513</v>
@@ -7414,7 +7414,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7423,7 +7423,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
@@ -7438,25 +7438,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T41" t="n">
-        <v>3798.061577393173</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U41" t="n">
-        <v>3542.357233923681</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V41" t="n">
-        <v>3542.357233923681</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W41" t="n">
-        <v>3171.358198891968</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X41" t="n">
-        <v>2781.905593825025</v>
+        <v>2066.214730721189</v>
       </c>
       <c r="Y41" t="n">
-        <v>2781.905593825025</v>
+        <v>1717.186616241676</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K42" t="n">
-        <v>446.9164895271324</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L42" t="n">
-        <v>999.3489583586883</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M42" t="n">
-        <v>1707.484428651028</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7599,19 +7599,19 @@
         <v>1222.217555045146</v>
       </c>
       <c r="T43" t="n">
-        <v>1144.775294359473</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U43" t="n">
-        <v>859.3513010128785</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V43" t="n">
-        <v>593.3719558337027</v>
+        <v>670.8142165193759</v>
       </c>
       <c r="W43" t="n">
-        <v>310.0415537648803</v>
+        <v>387.4838144505536</v>
       </c>
       <c r="X43" t="n">
-        <v>75.96123154786345</v>
+        <v>153.4034922335366</v>
       </c>
       <c r="Y43" t="n">
         <v>75.96123154786345</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1674.055825181743</v>
+        <v>1816.192180587319</v>
       </c>
       <c r="C44" t="n">
-        <v>1280.880323684673</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="D44" t="n">
-        <v>895.4391949013411</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E44" t="n">
-        <v>492.8556700178857</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F44" t="n">
-        <v>75.96123154786345</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G44" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H44" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I44" t="n">
         <v>75.96123154786345</v>
@@ -7651,7 +7651,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
@@ -7660,13 +7660,13 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O44" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q44" t="n">
         <v>3798.061577393173</v>
@@ -7681,19 +7681,19 @@
         <v>3798.061577393173</v>
       </c>
       <c r="U44" t="n">
-        <v>3573.599729367676</v>
+        <v>3715.736084773253</v>
       </c>
       <c r="V44" t="n">
-        <v>3231.492920071194</v>
+        <v>3373.629275476771</v>
       </c>
       <c r="W44" t="n">
-        <v>2860.493885039482</v>
+        <v>3002.630240445058</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.041279972539</v>
+        <v>2613.177635378115</v>
       </c>
       <c r="Y44" t="n">
-        <v>2074.55057089314</v>
+        <v>2216.686926298716</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K45" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L45" t="n">
-        <v>628.3937003794193</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.529170671759</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="N45" t="n">
-        <v>2074.797953750985</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3100.282383546135</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="C46" t="n">
-        <v>3100.282383546135</v>
+        <v>865.5282512259889</v>
       </c>
       <c r="D46" t="n">
-        <v>3100.282383546135</v>
+        <v>709.8951381285037</v>
       </c>
       <c r="E46" t="n">
-        <v>2944.723571405337</v>
+        <v>554.3363259877062</v>
       </c>
       <c r="F46" t="n">
-        <v>2944.723571405337</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G46" t="n">
-        <v>2776.740821715708</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H46" t="n">
-        <v>2776.740821715708</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R46" t="n">
-        <v>3686.359411909726</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S46" t="n">
-        <v>3488.271420568131</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T46" t="n">
-        <v>3253.711577637593</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U46" t="n">
-        <v>3100.282383546135</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="V46" t="n">
-        <v>3100.282383546135</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="W46" t="n">
-        <v>3100.282383546135</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="X46" t="n">
-        <v>3100.282383546135</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="Y46" t="n">
-        <v>3100.282383546135</v>
+        <v>987.6577121146069</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>447.7345042973469</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8063,22 +8063,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>234.9862648617782</v>
       </c>
       <c r="M3" t="n">
-        <v>507.3325231325132</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,10 +8221,10 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>468.0425993879815</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>317.5329465084872</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140705</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339699</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,16 +8540,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>673.3036524843445</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>64.2435808413635</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>58.48873841560187</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>401.4578665880538</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>43.57487401342238</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>59.28140949005267</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>50.2963186883373</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.39698703445768</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>64.24358084136348</v>
+        <v>64.24358084136352</v>
       </c>
       <c r="K15" t="n">
-        <v>58.48873841560183</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>43.5748740134224</v>
       </c>
       <c r="N15" t="n">
-        <v>124.2154315006362</v>
+        <v>191.739843779727</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.39698703445765</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>64.2435808413635</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>58.48873841560187</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>48.23153711108623</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>43.5748740134224</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>59.28140949005268</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>403.5226481653049</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.39698703445768</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>64.2435808413635</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>58.48873841560187</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>401.4578665880538</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>67.58833364533081</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>35.26794985814428</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>50.2963186883373</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.39698703445768</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>260.829988467765</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>332.7307558192324</v>
       </c>
       <c r="P24" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>260.8299884677658</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P27" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,22 +10193,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O30" t="n">
-        <v>152.2183511990925</v>
+        <v>610.3586878272009</v>
       </c>
       <c r="P30" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>50.09263685995591</v>
@@ -10427,25 +10427,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406338</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248231</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>155.2572892683739</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>50.09263685995591</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>133.669216859226</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>20.49834389404698</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P36" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406337</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K39" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>31.31875908515959</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N42" t="n">
-        <v>182.4577405517647</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O42" t="n">
         <v>16.46232962463523</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>484.755730865248</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O45" t="n">
-        <v>296.7442678660666</v>
+        <v>16.46232962463523</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.6710726488808</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.99566033642635</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>156.6436591773999</v>
@@ -23314,16 +23314,16 @@
         <v>219.6894543054248</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1663978451077</v>
+        <v>5.004476761065007</v>
       </c>
       <c r="V11" t="n">
-        <v>141.5421297076363</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>58.6274383399072</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4100049457286</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.4878088856454</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>126.906482568077</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>115.3999737951352</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9732717690249</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>232.6717799003976</v>
@@ -23475,16 +23475,16 @@
         <v>282.5755942905643</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>156.2419323979823</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>276.4324854666331</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>408.6710726488808</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>317.1548035061597</v>
       </c>
       <c r="I14" t="n">
-        <v>123.0727134769421</v>
+        <v>65.34107856963317</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>14.99566033642633</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>126.906482568077</v>
       </c>
       <c r="J16" t="n">
-        <v>18.65584247365963</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>115.3999737951352</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>20.89557525354945</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.77172276957504</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>278.2271368024124</v>
       </c>
       <c r="H17" t="n">
-        <v>65.34175404345029</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>123.0727134769421</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>14.99566033642635</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>156.6436591773999</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.6894543054248</v>
@@ -23791,10 +23791,10 @@
         <v>253.1663978451077</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>133.2773786312943</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>166.4100049457286</v>
@@ -23913,7 +23913,7 @@
         <v>126.906482568077</v>
       </c>
       <c r="J19" t="n">
-        <v>18.65584247365965</v>
+        <v>18.65584247365966</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>115.3999737951352</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9732717690249</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T19" t="n">
-        <v>232.6717799003976</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>20.89557525354945</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.6710726488808</v>
       </c>
       <c r="H20" t="n">
         <v>317.1548035061597</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>14.99566033642635</v>
+        <v>14.99566033642639</v>
       </c>
       <c r="S20" t="n">
         <v>156.6436591773999</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1663978451077</v>
+        <v>105.6210218385336</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>335.1654495241114</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>135.8908874333726</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4100049457286</v>
       </c>
       <c r="H22" t="n">
-        <v>152.4878088856454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>126.906482568077</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.65584247365965</v>
+        <v>18.65584247365967</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>115.3999737951352</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9732717690249</v>
+        <v>197.973271769025</v>
       </c>
       <c r="T22" t="n">
-        <v>232.6717799003976</v>
+        <v>19.79276865913766</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5755942905643</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>98.28613350985074</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>63.21629922982957</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>106.6881004255719</v>
       </c>
       <c r="V25" t="n">
-        <v>130.8106022692347</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
         <v>113.8693593270194</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>32.38775426078648</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>60.33487160194238</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>122.4228066197137</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
         <v>11.085091836852</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>135.097542701456</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>173.3594947342511</v>
       </c>
       <c r="Y29" t="n">
-        <v>117.926195429505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
         <v>11.085091836852</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.91368254970709</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>215.3202355210393</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>186.2151204747583</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>31.12675277395737</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>153.717625679522</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>122.4228066197133</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>11.085091836852</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>102.3674162232732</v>
       </c>
       <c r="D35" t="n">
-        <v>111.7968093859129</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>49.6520119439373</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>11.085091836852</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>25.79110685238879</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>32.3877542607858</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>68.80407855975395</v>
       </c>
       <c r="I38" t="n">
         <v>113.8693593270194</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
@@ -25602,22 +25602,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>39.27957520202142</v>
       </c>
       <c r="U40" t="n">
-        <v>28.59594496730064</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>136.7302220275887</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>46.98796865388744</v>
       </c>
     </row>
     <row r="42">
@@ -25839,7 +25839,7 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>155.5464064224171</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>144.2131024927066</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>30.93007048955552</v>
+        <v>171.6450623410763</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>47.59490047493892</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
         <v>11.085091836852</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>130.674851262585</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666957.6539751576</v>
+        <v>666957.6539751575</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666957.6539751575</v>
+        <v>666957.6539751574</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695239.566107708</v>
+        <v>695239.5661077083</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695239.5661077083</v>
+        <v>695239.5661077085</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695239.5661077085</v>
+        <v>695239.5661077083</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695239.566107708</v>
+        <v>695239.5661077085</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>695239.5661077083</v>
+        <v>695239.5661077085</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427277</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="C2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427275</v>
       </c>
       <c r="D2" t="n">
         <v>468863.6630427275</v>
       </c>
       <c r="E2" t="n">
+        <v>356995.9416369386</v>
+      </c>
+      <c r="F2" t="n">
         <v>356995.9416369387</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>356995.9416369388</v>
       </c>
-      <c r="G2" t="n">
-        <v>356995.9416369387</v>
-      </c>
       <c r="H2" t="n">
-        <v>356995.9416369387</v>
+        <v>356995.9416369388</v>
       </c>
       <c r="I2" t="n">
+        <v>374378.2378845813</v>
+      </c>
+      <c r="J2" t="n">
         <v>374378.2378845812</v>
       </c>
-      <c r="J2" t="n">
-        <v>374378.2378845813</v>
-      </c>
       <c r="K2" t="n">
-        <v>374378.2378845812</v>
+        <v>374378.2378845814</v>
       </c>
       <c r="L2" t="n">
         <v>374378.2378845813</v>
@@ -26349,7 +26349,7 @@
         <v>374378.2378845811</v>
       </c>
       <c r="N2" t="n">
-        <v>374378.2378845812</v>
+        <v>374378.2378845814</v>
       </c>
       <c r="O2" t="n">
         <v>374378.2378845813</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158280.8457253088</v>
+        <v>158280.8457253086</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63043.869263929</v>
+        <v>63043.86926392918</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72050.01288964317</v>
+        <v>72050.012889643</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>63412.41553339368</v>
       </c>
       <c r="F4" t="n">
-        <v>63412.41553339367</v>
+        <v>63412.41553339369</v>
       </c>
       <c r="G4" t="n">
         <v>63412.41553339368</v>
@@ -26447,7 +26447,7 @@
         <v>62313.22025902379</v>
       </c>
       <c r="L4" t="n">
-        <v>62313.22025902379</v>
+        <v>62313.2202590238</v>
       </c>
       <c r="M4" t="n">
         <v>62313.22025902379</v>
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717313</v>
       </c>
       <c r="E5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="F5" t="n">
-        <v>55488.88038302911</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="G5" t="n">
-        <v>55488.88038302911</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="H5" t="n">
-        <v>55488.8803830291</v>
+        <v>55488.88038302909</v>
       </c>
       <c r="I5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="J5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="K5" t="n">
+        <v>60977.55903357454</v>
+      </c>
+      <c r="L5" t="n">
         <v>60977.55903357455</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>60977.55903357454</v>
-      </c>
-      <c r="M5" t="n">
-        <v>60977.55903357455</v>
       </c>
       <c r="N5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10493.4955309807</v>
+        <v>-10493.4955309809</v>
       </c>
       <c r="C6" t="n">
-        <v>187702.3104607642</v>
+        <v>187702.310460764</v>
       </c>
       <c r="D6" t="n">
         <v>187702.310460764</v>
       </c>
       <c r="E6" t="n">
-        <v>79813.79999520707</v>
+        <v>79383.53952826186</v>
       </c>
       <c r="F6" t="n">
-        <v>238094.645720516</v>
+        <v>237664.3852535707</v>
       </c>
       <c r="G6" t="n">
-        <v>238094.6457205159</v>
+        <v>237664.3852535707</v>
       </c>
       <c r="H6" t="n">
-        <v>238094.6457205159</v>
+        <v>237664.3852535707</v>
       </c>
       <c r="I6" t="n">
-        <v>188043.5893280539</v>
+        <v>187680.1838466763</v>
       </c>
       <c r="J6" t="n">
-        <v>96348.02422637961</v>
+        <v>95984.61874500198</v>
       </c>
       <c r="K6" t="n">
-        <v>251087.4585919829</v>
+        <v>250724.0531106056</v>
       </c>
       <c r="L6" t="n">
-        <v>251087.458591983</v>
+        <v>250724.0531106055</v>
       </c>
       <c r="M6" t="n">
-        <v>179037.4457023396</v>
+        <v>178674.0402209623</v>
       </c>
       <c r="N6" t="n">
-        <v>251087.4585919829</v>
+        <v>250724.0531106056</v>
       </c>
       <c r="O6" t="n">
-        <v>251087.458591983</v>
+        <v>250724.0531106055</v>
       </c>
       <c r="P6" t="n">
-        <v>251087.458591983</v>
+        <v>250724.0531106055</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89.56375786401762</v>
+        <v>89.5637578640175</v>
       </c>
       <c r="F3" t="n">
-        <v>89.56375786401772</v>
+        <v>89.56375786401748</v>
       </c>
       <c r="G3" t="n">
-        <v>89.56375786401762</v>
+        <v>89.56375786401748</v>
       </c>
       <c r="H3" t="n">
-        <v>89.56375786401762</v>
+        <v>89.56375786401746</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.412126269295</v>
       </c>
       <c r="E4" t="n">
-        <v>880.5327378551566</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="F4" t="n">
-        <v>880.5327378551568</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="G4" t="n">
-        <v>880.5327378551568</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="H4" t="n">
-        <v>880.5327378551566</v>
+        <v>880.5327378551565</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="J4" t="n">
         <v>949.5153943482932</v>
       </c>
       <c r="K4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="L4" t="n">
         <v>949.5153943482933</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>949.5153943482932</v>
-      </c>
-      <c r="M4" t="n">
-        <v>949.5153943482933</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482932</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>89.56375786401762</v>
+        <v>89.5637578640175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59.38225393407049</v>
+        <v>59.38225393407065</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.1206115858619</v>
+        <v>289.1206115858615</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.98265649313657</v>
+        <v>68.9826564931368</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.412126269295</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.120611585862</v>
+        <v>289.1206115858614</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.1206115858619</v>
+        <v>289.1206115858615</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27387,19 +27387,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>396.4981503133704</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>108.148042314548</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27548,7 +27548,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27560,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.757563516060259</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>24.41217901511641</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27624,19 +27624,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>279.0310991722513</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>164.8359926547896</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>78.84828456222459</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>68.78112006367115</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>322.3022036044752</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28016,22 +28016,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>117.3414232437765</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3600553079960505</v>
+        <v>0.36005530799605</v>
       </c>
       <c r="H11" t="n">
-        <v>3.687416423014553</v>
+        <v>3.687416423014548</v>
       </c>
       <c r="I11" t="n">
-        <v>13.88103226151775</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J11" t="n">
-        <v>30.55924419702982</v>
+        <v>30.55924419702978</v>
       </c>
       <c r="K11" t="n">
-        <v>45.80038538450264</v>
+        <v>45.80038538450258</v>
       </c>
       <c r="L11" t="n">
-        <v>56.81942801658678</v>
+        <v>56.81942801658671</v>
       </c>
       <c r="M11" t="n">
-        <v>63.22256160016154</v>
+        <v>63.22256160016146</v>
       </c>
       <c r="N11" t="n">
-        <v>64.24556874400533</v>
+        <v>64.24556874400524</v>
       </c>
       <c r="O11" t="n">
-        <v>60.66526877511959</v>
+        <v>60.66526877511951</v>
       </c>
       <c r="P11" t="n">
-        <v>51.77640335896709</v>
+        <v>51.77640335896702</v>
       </c>
       <c r="Q11" t="n">
-        <v>38.88192264135852</v>
+        <v>38.88192264135847</v>
       </c>
       <c r="R11" t="n">
-        <v>22.61732424090692</v>
+        <v>22.6173242409069</v>
       </c>
       <c r="S11" t="n">
-        <v>8.204760330960008</v>
+        <v>8.204760330959997</v>
       </c>
       <c r="T11" t="n">
-        <v>1.576142110752712</v>
+        <v>1.57614211075271</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02880442463968403</v>
+        <v>0.028804424639684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1926465735188304</v>
+        <v>0.1926465735188301</v>
       </c>
       <c r="H12" t="n">
-        <v>1.860560328458178</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I12" t="n">
-        <v>6.632787728608853</v>
+        <v>6.632787728608845</v>
       </c>
       <c r="J12" t="n">
-        <v>18.20087649196985</v>
+        <v>18.20087649196983</v>
       </c>
       <c r="K12" t="n">
-        <v>31.10819691773148</v>
+        <v>31.10819691773144</v>
       </c>
       <c r="L12" t="n">
-        <v>41.828809745832</v>
+        <v>41.82880974583195</v>
       </c>
       <c r="M12" t="n">
-        <v>48.8122480358896</v>
+        <v>48.81224803588953</v>
       </c>
       <c r="N12" t="n">
-        <v>50.10416299602246</v>
+        <v>50.1041629960224</v>
       </c>
       <c r="O12" t="n">
-        <v>45.8355204985789</v>
+        <v>45.83552049857884</v>
       </c>
       <c r="P12" t="n">
-        <v>36.78704613097735</v>
+        <v>36.78704613097731</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.59116612145631</v>
+        <v>24.59116612145628</v>
       </c>
       <c r="R12" t="n">
-        <v>11.96098638040598</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S12" t="n">
-        <v>3.578325609001079</v>
+        <v>3.578325609001074</v>
       </c>
       <c r="T12" t="n">
-        <v>0.776500881858794</v>
+        <v>0.776500881858793</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01267411667887042</v>
+        <v>0.01267411667887041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1615084158203596</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H13" t="n">
-        <v>1.435956642475562</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I13" t="n">
-        <v>4.856998541215908</v>
+        <v>4.856998541215901</v>
       </c>
       <c r="J13" t="n">
-        <v>11.41864499849942</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K13" t="n">
-        <v>18.7643414016745</v>
+        <v>18.76434140167448</v>
       </c>
       <c r="L13" t="n">
-        <v>24.01189665751056</v>
+        <v>24.01189665751053</v>
       </c>
       <c r="M13" t="n">
-        <v>25.31717830900419</v>
+        <v>25.31717830900416</v>
       </c>
       <c r="N13" t="n">
-        <v>24.71519239549196</v>
+        <v>24.71519239549193</v>
       </c>
       <c r="O13" t="n">
-        <v>22.82848044704502</v>
+        <v>22.82848044704499</v>
       </c>
       <c r="P13" t="n">
-        <v>19.53370876430967</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.52412743746666</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R13" t="n">
-        <v>7.262005678613622</v>
+        <v>7.262005678613614</v>
       </c>
       <c r="S13" t="n">
-        <v>2.814651210251175</v>
+        <v>2.814651210251172</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6900814130506273</v>
+        <v>0.6900814130506264</v>
       </c>
       <c r="U13" t="n">
-        <v>0.008809549953837807</v>
+        <v>0.008809549953837797</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3600553079960508</v>
+        <v>0.3600553079960499</v>
       </c>
       <c r="H14" t="n">
-        <v>3.687416423014557</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I14" t="n">
-        <v>13.88103226151776</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J14" t="n">
-        <v>30.55924419702985</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K14" t="n">
-        <v>45.80038538450269</v>
+        <v>45.80038538450257</v>
       </c>
       <c r="L14" t="n">
-        <v>56.81942801658684</v>
+        <v>56.81942801658669</v>
       </c>
       <c r="M14" t="n">
-        <v>63.22256160016161</v>
+        <v>63.22256160016144</v>
       </c>
       <c r="N14" t="n">
-        <v>64.2455687440054</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O14" t="n">
-        <v>60.66526877511966</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P14" t="n">
-        <v>51.77640335896714</v>
+        <v>51.77640335896701</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.88192264135856</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R14" t="n">
-        <v>22.61732424090695</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S14" t="n">
-        <v>8.204760330960017</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T14" t="n">
-        <v>1.576142110752713</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02880442463968406</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1926465735188306</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H15" t="n">
-        <v>1.86056032845818</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I15" t="n">
-        <v>6.63278772860886</v>
+        <v>6.632787728608842</v>
       </c>
       <c r="J15" t="n">
-        <v>18.20087649196987</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K15" t="n">
-        <v>31.10819691773152</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L15" t="n">
-        <v>41.82880974583205</v>
+        <v>41.82880974583194</v>
       </c>
       <c r="M15" t="n">
-        <v>48.81224803588965</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N15" t="n">
-        <v>50.10416299602252</v>
+        <v>50.10416299602238</v>
       </c>
       <c r="O15" t="n">
-        <v>45.83552049857895</v>
+        <v>45.83552049857883</v>
       </c>
       <c r="P15" t="n">
-        <v>36.78704613097739</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.59116612145634</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R15" t="n">
-        <v>11.96098638040599</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S15" t="n">
-        <v>3.578325609001083</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7765008818587948</v>
+        <v>0.7765008818587927</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01267411667887044</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1615084158203598</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H16" t="n">
-        <v>1.435956642475564</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I16" t="n">
-        <v>4.856998541215913</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J16" t="n">
-        <v>11.41864499849944</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K16" t="n">
-        <v>18.76434140167452</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L16" t="n">
-        <v>24.01189665751059</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M16" t="n">
-        <v>25.31717830900422</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N16" t="n">
-        <v>24.71519239549199</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O16" t="n">
-        <v>22.82848044704505</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P16" t="n">
-        <v>19.53370876430969</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.52412743746667</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R16" t="n">
-        <v>7.26200567861363</v>
+        <v>7.262005678613611</v>
       </c>
       <c r="S16" t="n">
-        <v>2.814651210251178</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6900814130506281</v>
+        <v>0.6900814130506262</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008809549953837818</v>
+        <v>0.008809549953837793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3600553079960505</v>
+        <v>0.3600553079960499</v>
       </c>
       <c r="H17" t="n">
-        <v>3.687416423014553</v>
+        <v>3.687416423014547</v>
       </c>
       <c r="I17" t="n">
-        <v>13.88103226151775</v>
+        <v>13.88103226151773</v>
       </c>
       <c r="J17" t="n">
-        <v>30.55924419702982</v>
+        <v>30.55924419702977</v>
       </c>
       <c r="K17" t="n">
-        <v>45.80038538450264</v>
+        <v>45.80038538450257</v>
       </c>
       <c r="L17" t="n">
-        <v>56.81942801658678</v>
+        <v>56.81942801658669</v>
       </c>
       <c r="M17" t="n">
-        <v>63.22256160016154</v>
+        <v>63.22256160016144</v>
       </c>
       <c r="N17" t="n">
-        <v>64.24556874400533</v>
+        <v>64.24556874400523</v>
       </c>
       <c r="O17" t="n">
-        <v>60.66526877511959</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P17" t="n">
-        <v>51.77640335896709</v>
+        <v>51.77640335896701</v>
       </c>
       <c r="Q17" t="n">
-        <v>38.88192264135852</v>
+        <v>38.88192264135846</v>
       </c>
       <c r="R17" t="n">
-        <v>22.61732424090692</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S17" t="n">
-        <v>8.204760330960008</v>
+        <v>8.204760330959996</v>
       </c>
       <c r="T17" t="n">
-        <v>1.576142110752712</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02880442463968403</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1926465735188304</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H18" t="n">
-        <v>1.860560328458178</v>
+        <v>1.860560328458175</v>
       </c>
       <c r="I18" t="n">
-        <v>6.632787728608853</v>
+        <v>6.632787728608842</v>
       </c>
       <c r="J18" t="n">
-        <v>18.20087649196985</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K18" t="n">
-        <v>31.10819691773148</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L18" t="n">
-        <v>41.828809745832</v>
+        <v>41.82880974583194</v>
       </c>
       <c r="M18" t="n">
-        <v>48.8122480358896</v>
+        <v>48.81224803588952</v>
       </c>
       <c r="N18" t="n">
-        <v>50.10416299602246</v>
+        <v>50.10416299602238</v>
       </c>
       <c r="O18" t="n">
-        <v>45.8355204985789</v>
+        <v>45.83552049857883</v>
       </c>
       <c r="P18" t="n">
-        <v>36.78704613097735</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.59116612145631</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R18" t="n">
-        <v>11.96098638040598</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S18" t="n">
-        <v>3.578325609001079</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T18" t="n">
-        <v>0.776500881858794</v>
+        <v>0.7765008818587927</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01267411667887042</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1615084158203596</v>
+        <v>0.1615084158203594</v>
       </c>
       <c r="H19" t="n">
-        <v>1.435956642475562</v>
+        <v>1.43595664247556</v>
       </c>
       <c r="I19" t="n">
-        <v>4.856998541215908</v>
+        <v>4.8569985412159</v>
       </c>
       <c r="J19" t="n">
-        <v>11.41864499849942</v>
+        <v>11.41864499849941</v>
       </c>
       <c r="K19" t="n">
-        <v>18.7643414016745</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L19" t="n">
-        <v>24.01189665751056</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M19" t="n">
-        <v>25.31717830900419</v>
+        <v>25.31717830900415</v>
       </c>
       <c r="N19" t="n">
-        <v>24.71519239549196</v>
+        <v>24.71519239549192</v>
       </c>
       <c r="O19" t="n">
-        <v>22.82848044704502</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P19" t="n">
-        <v>19.53370876430967</v>
+        <v>19.53370876430964</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.52412743746666</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R19" t="n">
-        <v>7.262005678613622</v>
+        <v>7.262005678613611</v>
       </c>
       <c r="S19" t="n">
-        <v>2.814651210251175</v>
+        <v>2.814651210251171</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6900814130506273</v>
+        <v>0.6900814130506262</v>
       </c>
       <c r="U19" t="n">
-        <v>0.008809549953837807</v>
+        <v>0.008809549953837793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3600553079960505</v>
+        <v>0.3600553079960498</v>
       </c>
       <c r="H20" t="n">
-        <v>3.687416423014553</v>
+        <v>3.687416423014546</v>
       </c>
       <c r="I20" t="n">
-        <v>13.88103226151775</v>
+        <v>13.88103226151772</v>
       </c>
       <c r="J20" t="n">
-        <v>30.55924419702982</v>
+        <v>30.55924419702976</v>
       </c>
       <c r="K20" t="n">
-        <v>45.80038538450264</v>
+        <v>45.80038538450256</v>
       </c>
       <c r="L20" t="n">
-        <v>56.81942801658678</v>
+        <v>56.81942801658668</v>
       </c>
       <c r="M20" t="n">
-        <v>63.22256160016154</v>
+        <v>63.22256160016143</v>
       </c>
       <c r="N20" t="n">
-        <v>64.24556874400533</v>
+        <v>64.24556874400521</v>
       </c>
       <c r="O20" t="n">
-        <v>60.66526877511959</v>
+        <v>60.66526877511949</v>
       </c>
       <c r="P20" t="n">
-        <v>51.77640335896709</v>
+        <v>51.776403358967</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.88192264135852</v>
+        <v>38.88192264135845</v>
       </c>
       <c r="R20" t="n">
-        <v>22.61732424090692</v>
+        <v>22.61732424090689</v>
       </c>
       <c r="S20" t="n">
-        <v>8.204760330960008</v>
+        <v>8.204760330959994</v>
       </c>
       <c r="T20" t="n">
-        <v>1.576142110752712</v>
+        <v>1.576142110752709</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02880442463968403</v>
+        <v>0.02880442463968398</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1926465735188304</v>
+        <v>0.19264657351883</v>
       </c>
       <c r="H21" t="n">
-        <v>1.860560328458178</v>
+        <v>1.860560328458174</v>
       </c>
       <c r="I21" t="n">
-        <v>6.632787728608853</v>
+        <v>6.632787728608841</v>
       </c>
       <c r="J21" t="n">
-        <v>18.20087649196985</v>
+        <v>18.20087649196982</v>
       </c>
       <c r="K21" t="n">
-        <v>31.10819691773148</v>
+        <v>31.10819691773143</v>
       </c>
       <c r="L21" t="n">
-        <v>41.828809745832</v>
+        <v>41.82880974583193</v>
       </c>
       <c r="M21" t="n">
-        <v>48.8122480358896</v>
+        <v>48.81224803588951</v>
       </c>
       <c r="N21" t="n">
-        <v>50.10416299602246</v>
+        <v>50.10416299602237</v>
       </c>
       <c r="O21" t="n">
-        <v>45.8355204985789</v>
+        <v>45.83552049857882</v>
       </c>
       <c r="P21" t="n">
-        <v>36.78704613097735</v>
+        <v>36.78704613097729</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.59116612145631</v>
+        <v>24.59116612145627</v>
       </c>
       <c r="R21" t="n">
-        <v>11.96098638040598</v>
+        <v>11.96098638040596</v>
       </c>
       <c r="S21" t="n">
-        <v>3.578325609001079</v>
+        <v>3.578325609001073</v>
       </c>
       <c r="T21" t="n">
-        <v>0.776500881858794</v>
+        <v>0.7765008818587926</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01267411667887042</v>
+        <v>0.0126741166788704</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1615084158203596</v>
+        <v>0.1615084158203593</v>
       </c>
       <c r="H22" t="n">
-        <v>1.435956642475562</v>
+        <v>1.435956642475559</v>
       </c>
       <c r="I22" t="n">
-        <v>4.856998541215908</v>
+        <v>4.856998541215899</v>
       </c>
       <c r="J22" t="n">
-        <v>11.41864499849942</v>
+        <v>11.4186449984994</v>
       </c>
       <c r="K22" t="n">
-        <v>18.7643414016745</v>
+        <v>18.76434140167447</v>
       </c>
       <c r="L22" t="n">
-        <v>24.01189665751056</v>
+        <v>24.01189665751052</v>
       </c>
       <c r="M22" t="n">
-        <v>25.31717830900419</v>
+        <v>25.31717830900414</v>
       </c>
       <c r="N22" t="n">
-        <v>24.71519239549196</v>
+        <v>24.71519239549191</v>
       </c>
       <c r="O22" t="n">
-        <v>22.82848044704502</v>
+        <v>22.82848044704498</v>
       </c>
       <c r="P22" t="n">
-        <v>19.53370876430967</v>
+        <v>19.53370876430963</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.52412743746666</v>
+        <v>13.52412743746664</v>
       </c>
       <c r="R22" t="n">
-        <v>7.262005678613622</v>
+        <v>7.26200567861361</v>
       </c>
       <c r="S22" t="n">
-        <v>2.814651210251175</v>
+        <v>2.81465121025117</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6900814130506273</v>
+        <v>0.6900814130506261</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008809549953837807</v>
+        <v>0.008809549953837792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H38" t="n">
         <v>6.132234546038871</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144038</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J38" t="n">
-        <v>50.8205289199919</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798414</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367556</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086072</v>
@@ -33912,13 +33912,13 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529577</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089765</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733329</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>13.64465223657863</v>
@@ -33927,7 +33927,7 @@
         <v>2.621150418677912</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013885</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713594</v>
+        <v>0.3203744404713593</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447077</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I39" t="n">
         <v>11.03043577938672</v>
@@ -33976,37 +33976,37 @@
         <v>30.26835886926997</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085105</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287126</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M39" t="n">
-        <v>81.17557642995803</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259272</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425366</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948266</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595809</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R39" t="n">
         <v>19.89131833031827</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650027</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T39" t="n">
-        <v>1.29133381926833</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048418</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162245</v>
+        <v>0.2685911688162244</v>
       </c>
       <c r="H40" t="n">
         <v>2.38801966456607</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673371</v>
+        <v>8.077268967673369</v>
       </c>
       <c r="J40" t="n">
         <v>18.98939563530707</v>
       </c>
       <c r="K40" t="n">
-        <v>31.20541034064862</v>
+        <v>31.20541034064861</v>
       </c>
       <c r="L40" t="n">
-        <v>39.9321815892776</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089235</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257736</v>
+        <v>41.10177404257735</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322418</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P40" t="n">
         <v>32.48488099937317</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.49084778151131</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R40" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097293</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0146504273899759</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>144.92591800486</v>
       </c>
       <c r="M3" t="n">
-        <v>414.9454010832013</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>314.7944296574898</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>227.4725996515689</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835787</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.0716471098736</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,16 +35260,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>587.9315396301779</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35412,25 +35412,25 @@
         <v>176.6701259231188</v>
       </c>
       <c r="K11" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L11" t="n">
-        <v>555.1227529847978</v>
+        <v>555.1227529847977</v>
       </c>
       <c r="M11" t="n">
         <v>614.738622251253</v>
       </c>
       <c r="N11" t="n">
-        <v>597.3882794889165</v>
+        <v>597.3882794889164</v>
       </c>
       <c r="O11" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P11" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.5946096524177</v>
+        <v>225.5946096524176</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>354.0770313240208</v>
       </c>
       <c r="L12" t="n">
-        <v>353.2263294769675</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M12" t="n">
-        <v>682.9250254365777</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>712.5061541177993</v>
+        <v>24.01345963190841</v>
       </c>
       <c r="O12" t="n">
-        <v>567.5731796813881</v>
+        <v>567.573179681388</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>261.3235818334669</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>140.6207449022678</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.98089144761914</v>
+        <v>16.98089144761913</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K14" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L14" t="n">
-        <v>555.1227529847978</v>
+        <v>555.1227529847977</v>
       </c>
       <c r="M14" t="n">
-        <v>614.7386222512531</v>
+        <v>614.738622251253</v>
       </c>
       <c r="N14" t="n">
-        <v>597.3882794889165</v>
+        <v>597.3882794889164</v>
       </c>
       <c r="O14" t="n">
-        <v>505.149714120906</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P14" t="n">
-        <v>403.4809408655549</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.5946096524177</v>
+        <v>225.5946096524176</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>354.0770313240208</v>
       </c>
       <c r="L15" t="n">
-        <v>530.2794015623101</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M15" t="n">
-        <v>682.9250254365777</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>88.94748164249211</v>
+        <v>156.4718939215827</v>
       </c>
       <c r="O15" t="n">
-        <v>567.5731796813881</v>
+        <v>567.573179681388</v>
       </c>
       <c r="P15" t="n">
-        <v>446.5056003899647</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>261.3235818334669</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L16" t="n">
-        <v>189.7973914795306</v>
+        <v>189.7973914795305</v>
       </c>
       <c r="M16" t="n">
-        <v>213.4904897617962</v>
+        <v>213.4904897617961</v>
       </c>
       <c r="N16" t="n">
-        <v>209.7552267704508</v>
+        <v>209.7552267704507</v>
       </c>
       <c r="O16" t="n">
         <v>187.1767299841239</v>
       </c>
       <c r="P16" t="n">
-        <v>140.6207449022679</v>
+        <v>140.6207449022678</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.98089144761916</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K17" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L17" t="n">
-        <v>555.1227529847978</v>
+        <v>555.1227529847977</v>
       </c>
       <c r="M17" t="n">
         <v>614.738622251253</v>
       </c>
       <c r="N17" t="n">
-        <v>597.3882794889165</v>
+        <v>597.3882794889164</v>
       </c>
       <c r="O17" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P17" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.5946096524177</v>
+        <v>225.5946096524176</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>354.0770313240208</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M18" t="n">
-        <v>682.9250254365777</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>712.5061541177993</v>
+        <v>24.01345963190841</v>
       </c>
       <c r="O18" t="n">
-        <v>567.5731796813881</v>
+        <v>567.573179681388</v>
       </c>
       <c r="P18" t="n">
-        <v>353.2263294769676</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>261.3235818334669</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L19" t="n">
         <v>189.7973914795305</v>
@@ -36062,7 +36062,7 @@
         <v>140.6207449022678</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.98089144761914</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>176.6701259231188</v>
+        <v>176.6701259231187</v>
       </c>
       <c r="K20" t="n">
-        <v>408.4088258162823</v>
+        <v>408.4088258162822</v>
       </c>
       <c r="L20" t="n">
-        <v>555.1227529847978</v>
+        <v>555.1227529847977</v>
       </c>
       <c r="M20" t="n">
-        <v>614.738622251253</v>
+        <v>614.7386222512529</v>
       </c>
       <c r="N20" t="n">
-        <v>597.3882794889165</v>
+        <v>597.3882794889164</v>
       </c>
       <c r="O20" t="n">
-        <v>505.1497141209059</v>
+        <v>505.1497141209058</v>
       </c>
       <c r="P20" t="n">
-        <v>403.4809408655548</v>
+        <v>403.4809408655547</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.5946096524177</v>
+        <v>225.5946096524176</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.4584342896742</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>354.0770313240208</v>
       </c>
       <c r="L21" t="n">
-        <v>353.2263294769675</v>
+        <v>530.27940156231</v>
       </c>
       <c r="M21" t="n">
-        <v>682.9250254365777</v>
+        <v>24.01345963190841</v>
       </c>
       <c r="N21" t="n">
-        <v>712.5061541177993</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>567.5731796813881</v>
+        <v>567.573179681388</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>446.5056003899646</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>261.3235818334668</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>101.4259990884845</v>
+        <v>101.4259990884844</v>
       </c>
       <c r="L22" t="n">
         <v>189.7973914795305</v>
@@ -36293,13 +36293,13 @@
         <v>209.7552267704507</v>
       </c>
       <c r="O22" t="n">
-        <v>187.1767299841239</v>
+        <v>187.1767299841238</v>
       </c>
       <c r="P22" t="n">
         <v>140.6207449022678</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.98089144761914</v>
+        <v>16.98089144761912</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737181</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470628</v>
+        <v>316.2684261945972</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>240.3316445737188</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470628</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>715.2883538306461</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>135.7560215744572</v>
+        <v>593.8963582025657</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143696</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="O33" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>95.80572790674368</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470628</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>20.1072134658057</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>597.9628884470628</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>202.312390380303</v>
       </c>
       <c r="P40" t="n">
-        <v>153.5719171373314</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q40" t="n">
         <v>25.94761179166379</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K42" t="n">
         <v>374.7022807871404</v>
@@ -37867,10 +37867,10 @@
         <v>558.0125947793493</v>
       </c>
       <c r="M42" t="n">
-        <v>715.2883538306461</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N42" t="n">
-        <v>180.4096800901908</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
         <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306461</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>280.2819382414314</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
